--- a/mi.xlsx
+++ b/mi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B41561\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Superalien10\OneDrive\Documentos\Modelos Informacionais\A2-material\A1-entregue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1104" documentId="13_ncr:1_{AA030A47-55BE-43EB-AF3D-E16DC2603ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7C3DBD-75A2-4555-81EB-92E25D30B1D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DCB6D-E19F-438A-822C-FFC3E9499AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11385" firstSheet="3" xr2:uid="{37997780-74DF-42F5-BF9A-678C5AF707A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{37997780-74DF-42F5-BF9A-678C5AF707A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos Informacionais" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="524">
   <si>
     <t>Objetivos Informacionais</t>
   </si>
@@ -1603,12 +1603,36 @@
   <si>
     <t> Diuréticos</t>
   </si>
+  <si>
+    <t>Buscar novos insights de negócio</t>
+  </si>
+  <si>
+    <t>Encontrar base de dados compatível com o projeto</t>
+  </si>
+  <si>
+    <t>Criar crawler para a tabela</t>
+  </si>
+  <si>
+    <t>Explorar os dados com Athena</t>
+  </si>
+  <si>
+    <t>Identificar atributo de interesse</t>
+  </si>
+  <si>
+    <t>Tratar a tabela e fazer upload na AWS</t>
+  </si>
+  <si>
+    <t>Preparar a base de dados para receber o novo atributo</t>
+  </si>
+  <si>
+    <t>Integrar a base do projeto ao novo atributi e ao fato demandado pelos stackeholders</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2166,7 +2190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2214,9 +2238,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,16 +2341,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,16 +2382,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2368,13 +2403,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,136 +2436,79 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="51">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Times New Roman"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2F5496"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Times New Roman"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Times New Roman"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <name val="Roboto"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
+        <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2633,6 +2626,282 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2F5496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2F5496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2F5496"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Times New Roman"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Times New Roman"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Times New Roman"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <name val="Roboto"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2789,13 +3058,6 @@
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -2814,6 +3076,13 @@
       <font>
         <sz val="14"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2856,22 +3125,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C63279D-D393-4047-A3C1-B926E9228392}" name="Tabela1" displayName="Tabela1" ref="B4:G14" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C63279D-D393-4047-A3C1-B926E9228392}" name="Tabela1" displayName="Tabela1" ref="B4:G14" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47" totalsRowBorderDxfId="46">
   <autoFilter ref="B4:G14" xr:uid="{6C63279D-D393-4047-A3C1-B926E9228392}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BFF93B96-2341-40F0-BBC9-A1BB4B25F6B4}" name="Cliente" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{10FB5C9B-EA03-4F64-AF5D-33DFC6FCC68A}" name="Entregador" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{B6D9A1C2-1EEC-499E-9B0B-5D4F07110333}" name="Gerente" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{CD68142D-342E-4866-AC99-ED24325C8075}" name="Atendente" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{488E8F13-AFDC-4823-8BAD-7A4EDD02EA56}" name="Caixa" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{BB75869C-CF4E-43B1-8B74-A66965D8592F}" name="Proprietários" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{BFF93B96-2341-40F0-BBC9-A1BB4B25F6B4}" name="Cliente" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{10FB5C9B-EA03-4F64-AF5D-33DFC6FCC68A}" name="Entregador" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{B6D9A1C2-1EEC-499E-9B0B-5D4F07110333}" name="Gerente" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{CD68142D-342E-4866-AC99-ED24325C8075}" name="Atendente" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{488E8F13-AFDC-4823-8BAD-7A4EDD02EA56}" name="Caixa" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{BB75869C-CF4E-43B1-8B74-A66965D8592F}" name="Proprietários" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CAAB628-56C1-4AF7-ACEC-5F835C23B187}" name="Tabela2" displayName="Tabela2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CAAB628-56C1-4AF7-ACEC-5F835C23B187}" name="Tabela2" displayName="Tabela2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="A1:R12" xr:uid="{9CAAB628-56C1-4AF7-ACEC-5F835C23B187}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{E402552A-2F4E-4CDD-A568-8527BB7DF707}" name="Anti-inflamatórios não esteroides"/>
@@ -2898,18 +3167,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACF0FE30-BC1B-4056-833C-299660F1A9D3}" name="Tabela3" displayName="Tabela3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ACF0FE30-BC1B-4056-833C-299660F1A9D3}" name="Tabela3" displayName="Tabela3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:B11" xr:uid="{ACF0FE30-BC1B-4056-833C-299660F1A9D3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BDF4DADF-9BD4-4501-9782-A38C1B2B9A45}" name="Categoria 1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FF0497CC-2A49-48B0-A4DA-9B830AF9518C}" name="Categoria 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BDF4DADF-9BD4-4501-9782-A38C1B2B9A45}" name="Categoria 1" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{FF0497CC-2A49-48B0-A4DA-9B830AF9518C}" name="Categoria 2" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3206,211 +3475,199 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3F42A7-7EF2-4286-A4A8-F013026B9291}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A3:G25"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" zoomScale="214" zoomScaleNormal="214" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T3" sqref="T3:V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="B3" s="103" t="s">
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-    </row>
-    <row r="4" spans="1:7" ht="17.25">
-      <c r="B4" s="104" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+    </row>
+    <row r="4" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B4" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="105" t="s">
+      <c r="E4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75">
-      <c r="B5" s="107" t="s">
+    <row r="5" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75">
-      <c r="B6" s="110" t="s">
+    <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="78" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75">
-      <c r="B7" s="110" t="s">
+    <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="108" t="s">
+      <c r="F7" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="78" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75">
-      <c r="B8" s="107" t="s">
+    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B8" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108" t="s">
+      <c r="C8" s="77"/>
+      <c r="D8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="81" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75">
-      <c r="B9" s="107" t="s">
+    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="113" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="108" t="s">
+      <c r="E9" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75">
-      <c r="B10" s="107" t="s">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75">
-      <c r="B11" s="107" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75">
-      <c r="A12" s="101"/>
-      <c r="B12" s="107" t="s">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75">
-      <c r="A13" s="101"/>
-      <c r="B13" s="107" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B13" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75">
-      <c r="A14" s="101"/>
-      <c r="B14" s="114" t="s">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+    </row>
+    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B14" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="101"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="101"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="101"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75">
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="109"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="85"/>
+    </row>
+    <row r="25" spans="5:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3433,57 +3690,57 @@
       <selection activeCell="N18" sqref="M18:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" customWidth="1"/>
-    <col min="17" max="17" width="18.28515625" customWidth="1"/>
-    <col min="18" max="18" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="E1" s="90" t="s">
+      <c r="B1" s="88"/>
+      <c r="E1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="91"/>
-      <c r="I1" s="90" t="s">
+      <c r="F1" s="88"/>
+      <c r="I1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="M1" s="90" t="s">
+      <c r="J1" s="88"/>
+      <c r="M1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="91"/>
-      <c r="Q1" s="90" t="s">
+      <c r="N1" s="88"/>
+      <c r="Q1" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="91"/>
-      <c r="U1" s="90" t="s">
+      <c r="R1" s="88"/>
+      <c r="U1" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="91"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="61" t="s">
+      <c r="V1" s="88"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3517,85 +3774,85 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="34.5" customHeight="1">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="E4" s="75" t="s">
+      <c r="B4" s="90"/>
+      <c r="E4" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="I4" s="75" t="s">
+      <c r="F4" s="90"/>
+      <c r="I4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="M4" s="75" t="s">
+      <c r="J4" s="90"/>
+      <c r="M4" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="Q4" s="75" t="s">
+      <c r="N4" s="90"/>
+      <c r="Q4" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="U4" s="75" t="s">
+      <c r="R4" s="90"/>
+      <c r="U4" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="V4" s="76"/>
-    </row>
-    <row r="5" spans="1:22" ht="33" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="V4" s="90"/>
+    </row>
+    <row r="5" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="E5" s="75" t="s">
+      <c r="B5" s="90"/>
+      <c r="E5" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="I5" s="75" t="s">
+      <c r="F5" s="90"/>
+      <c r="I5" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="M5" s="75" t="s">
+      <c r="J5" s="90"/>
+      <c r="M5" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="Q5" s="75" t="s">
+      <c r="N5" s="90"/>
+      <c r="Q5" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="76"/>
-      <c r="U5" s="75" t="s">
+      <c r="R5" s="90"/>
+      <c r="U5" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="V5" s="76"/>
-    </row>
-    <row r="6" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="V5" s="90"/>
+    </row>
+    <row r="6" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="E6" s="79" t="s">
+      <c r="B6" s="92"/>
+      <c r="E6" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="I6" s="79" t="s">
+      <c r="F6" s="92"/>
+      <c r="I6" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="80"/>
-      <c r="M6" s="79" t="s">
+      <c r="J6" s="92"/>
+      <c r="M6" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="80"/>
-      <c r="Q6" s="79" t="s">
+      <c r="N6" s="92"/>
+      <c r="Q6" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="80"/>
-      <c r="U6" s="79" t="s">
+      <c r="R6" s="92"/>
+      <c r="U6" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="V6" s="80"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1">
+      <c r="V6" s="92"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -3633,85 +3890,85 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="70.5" customHeight="1">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:22" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="E11" s="75" t="s">
+      <c r="B11" s="90"/>
+      <c r="E11" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="I11" s="75" t="s">
+      <c r="F11" s="90"/>
+      <c r="I11" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="76"/>
-      <c r="M11" s="75" t="s">
+      <c r="J11" s="90"/>
+      <c r="M11" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="76"/>
-      <c r="Q11" s="75" t="s">
+      <c r="N11" s="90"/>
+      <c r="Q11" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="R11" s="76"/>
-      <c r="U11" s="75" t="s">
+      <c r="R11" s="90"/>
+      <c r="U11" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="V11" s="76"/>
-    </row>
-    <row r="12" spans="1:22" ht="33" customHeight="1">
-      <c r="A12" s="75" t="s">
+      <c r="V11" s="90"/>
+    </row>
+    <row r="12" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="E12" s="75" t="s">
+      <c r="B12" s="90"/>
+      <c r="E12" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="I12" s="75" t="s">
+      <c r="F12" s="90"/>
+      <c r="I12" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="M12" s="75" t="s">
+      <c r="J12" s="90"/>
+      <c r="M12" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="N12" s="76"/>
-      <c r="Q12" s="77" t="s">
+      <c r="N12" s="90"/>
+      <c r="Q12" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="R12" s="78"/>
-      <c r="U12" s="75" t="s">
+      <c r="R12" s="94"/>
+      <c r="U12" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="V12" s="76"/>
-    </row>
-    <row r="13" spans="1:22" ht="45.75" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="V12" s="90"/>
+    </row>
+    <row r="13" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="E13" s="79" t="s">
+      <c r="B13" s="92"/>
+      <c r="E13" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="I13" s="79" t="s">
+      <c r="F13" s="92"/>
+      <c r="I13" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="M13" s="79" t="s">
+      <c r="J13" s="92"/>
+      <c r="M13" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="N13" s="80"/>
-      <c r="Q13" s="79" t="s">
+      <c r="N13" s="92"/>
+      <c r="Q13" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="80"/>
-      <c r="U13" s="79" t="s">
+      <c r="R13" s="92"/>
+      <c r="U13" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="V13" s="80"/>
-    </row>
-    <row r="17" spans="1:22" ht="31.5" customHeight="1">
+      <c r="V13" s="92"/>
+    </row>
+    <row r="17" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -3736,10 +3993,10 @@
       <c r="N17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="57" t="s">
+      <c r="Q17" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="58" t="s">
+      <c r="R17" s="57" t="s">
         <v>98</v>
       </c>
       <c r="U17" s="2" t="s">
@@ -3749,86 +4006,86 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="44.25" customHeight="1">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:22" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="E18" s="75" t="s">
+      <c r="B18" s="90"/>
+      <c r="E18" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="76"/>
-      <c r="I18" s="75" t="s">
+      <c r="F18" s="90"/>
+      <c r="I18" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="76"/>
-      <c r="M18" s="75" t="s">
+      <c r="J18" s="90"/>
+      <c r="M18" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="N18" s="76"/>
-      <c r="Q18" s="83" t="s">
+      <c r="N18" s="90"/>
+      <c r="Q18" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="R18" s="84"/>
-      <c r="U18" s="75" t="s">
+      <c r="R18" s="97"/>
+      <c r="U18" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="V18" s="76"/>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
-      <c r="A19" s="77" t="s">
+      <c r="V18" s="90"/>
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="E19" s="77" t="s">
+      <c r="B19" s="94"/>
+      <c r="E19" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="78"/>
-      <c r="I19" s="75" t="s">
+      <c r="F19" s="94"/>
+      <c r="I19" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="76"/>
-      <c r="M19" s="75" t="s">
+      <c r="J19" s="90"/>
+      <c r="M19" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="N19" s="76"/>
-      <c r="Q19" s="85" t="s">
+      <c r="N19" s="90"/>
+      <c r="Q19" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="R19" s="86"/>
-      <c r="U19" s="75" t="s">
+      <c r="R19" s="99"/>
+      <c r="U19" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="V19" s="76"/>
-    </row>
-    <row r="20" spans="1:22" ht="48" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="V19" s="90"/>
+    </row>
+    <row r="20" spans="1:22" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="E20" s="79" t="s">
+      <c r="B20" s="92"/>
+      <c r="E20" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="I20" s="89" t="s">
+      <c r="F20" s="92"/>
+      <c r="I20" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="M20" s="79" t="s">
+      <c r="J20" s="92"/>
+      <c r="M20" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="80"/>
-      <c r="Q20" s="87" t="s">
+      <c r="N20" s="92"/>
+      <c r="Q20" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="R20" s="88"/>
-      <c r="U20" s="79" t="s">
+      <c r="R20" s="101"/>
+      <c r="U20" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="V20" s="80"/>
-    </row>
-    <row r="23" spans="1:22" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1">
+      <c r="V20" s="92"/>
+    </row>
+    <row r="23" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3860,75 +4117,75 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="47.25" customHeight="1">
-      <c r="A25" s="75" t="s">
+    <row r="25" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="I25" s="75" t="s">
+      <c r="B25" s="90"/>
+      <c r="I25" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="J25" s="76"/>
-      <c r="M25" s="75" t="s">
+      <c r="J25" s="90"/>
+      <c r="M25" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="N25" s="76"/>
-      <c r="Q25" s="75" t="s">
+      <c r="N25" s="90"/>
+      <c r="Q25" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="R25" s="76"/>
-      <c r="U25" s="75" t="s">
+      <c r="R25" s="90"/>
+      <c r="U25" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="V25" s="76"/>
-    </row>
-    <row r="26" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A26" s="75" t="s">
+      <c r="V25" s="90"/>
+    </row>
+    <row r="26" spans="1:22" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="89" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="I26" s="77" t="s">
+      <c r="B26" s="90"/>
+      <c r="I26" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="78"/>
-      <c r="M26" s="75" t="s">
+      <c r="J26" s="94"/>
+      <c r="M26" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="N26" s="76"/>
-      <c r="Q26" s="75" t="s">
+      <c r="N26" s="90"/>
+      <c r="Q26" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="R26" s="76"/>
-      <c r="U26" s="77" t="s">
+      <c r="R26" s="90"/>
+      <c r="U26" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="V26" s="78"/>
-    </row>
-    <row r="27" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A27" s="79" t="s">
+      <c r="V26" s="94"/>
+    </row>
+    <row r="27" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="I27" s="73" t="s">
+      <c r="B27" s="92"/>
+      <c r="I27" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="J27" s="74"/>
-      <c r="M27" s="79" t="s">
+      <c r="J27" s="103"/>
+      <c r="M27" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="N27" s="80"/>
-      <c r="Q27" s="79" t="s">
+      <c r="N27" s="92"/>
+      <c r="Q27" s="91" t="s">
         <v>133</v>
       </c>
-      <c r="R27" s="80"/>
-      <c r="U27" s="73" t="s">
+      <c r="R27" s="92"/>
+      <c r="U27" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="V27" s="74"/>
-    </row>
-    <row r="29" spans="1:22" ht="15" customHeight="1"/>
-    <row r="30" spans="1:22" ht="15" customHeight="1"/>
-    <row r="31" spans="1:22" ht="15" customHeight="1">
+      <c r="V27" s="103"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
@@ -3948,52 +4205,52 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="64.5" customHeight="1">
-      <c r="A32" s="75" t="s">
+    <row r="32" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="I32" s="75" t="s">
+      <c r="B32" s="90"/>
+      <c r="I32" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="J32" s="76"/>
-      <c r="M32" s="81" t="s">
+      <c r="J32" s="90"/>
+      <c r="M32" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="N32" s="82"/>
-    </row>
-    <row r="33" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A33" s="75" t="s">
+      <c r="N32" s="105"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="I33" s="77" t="s">
+      <c r="B33" s="90"/>
+      <c r="I33" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="78"/>
-      <c r="M33" s="75" t="s">
+      <c r="J33" s="94"/>
+      <c r="M33" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="N33" s="76"/>
-    </row>
-    <row r="34" spans="1:14" ht="37.5" customHeight="1">
-      <c r="A34" s="79" t="s">
+      <c r="N33" s="90"/>
+    </row>
+    <row r="34" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="80"/>
-      <c r="I34" s="73" t="s">
+      <c r="B34" s="92"/>
+      <c r="I34" s="102" t="s">
         <v>134</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="M34" s="79" t="s">
+      <c r="J34" s="103"/>
+      <c r="M34" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="N34" s="80"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1"/>
-    <row r="36" spans="1:14" ht="15" customHeight="1"/>
-    <row r="37" spans="1:14" ht="15" customHeight="1"/>
-    <row r="38" spans="1:14">
+      <c r="N34" s="92"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -4001,27 +4258,27 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="60.75" customHeight="1">
-      <c r="A39" s="75" t="s">
+    <row r="39" spans="1:14" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="76"/>
-    </row>
-    <row r="40" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A40" s="75" t="s">
+      <c r="B39" s="90"/>
+    </row>
+    <row r="40" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="76"/>
-    </row>
-    <row r="41" spans="1:14" ht="34.5" customHeight="1">
-      <c r="A41" s="79" t="s">
+      <c r="B40" s="90"/>
+    </row>
+    <row r="41" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="B41" s="80"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1"/>
-    <row r="43" spans="1:14" ht="15" customHeight="1"/>
-    <row r="45" spans="1:14">
+      <c r="B41" s="92"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -4029,27 +4286,27 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="45.75" customHeight="1">
-      <c r="A46" s="75" t="s">
+    <row r="46" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="76"/>
-    </row>
-    <row r="47" spans="1:14" ht="19.5" customHeight="1">
-      <c r="A47" s="75" t="s">
+      <c r="B46" s="90"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="76"/>
-    </row>
-    <row r="48" spans="1:14" ht="39" customHeight="1">
-      <c r="A48" s="79" t="s">
+      <c r="B47" s="90"/>
+    </row>
+    <row r="48" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="91" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="80"/>
-    </row>
-    <row r="50" spans="1:2" ht="15" customHeight="1"/>
-    <row r="51" spans="1:2" ht="15" customHeight="1"/>
-    <row r="52" spans="1:2" ht="15" customHeight="1">
+      <c r="B48" s="92"/>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
@@ -4057,25 +4314,25 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A53" s="75" t="s">
+    <row r="53" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="76"/>
-    </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A54" s="77" t="s">
+      <c r="B53" s="90"/>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="78"/>
-    </row>
-    <row r="55" spans="1:2" ht="21" customHeight="1">
-      <c r="A55" s="79" t="s">
+      <c r="B54" s="94"/>
+    </row>
+    <row r="55" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="80"/>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="B55" s="92"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>44</v>
       </c>
@@ -4083,25 +4340,25 @@
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="34.5" customHeight="1">
-      <c r="A60" s="75" t="s">
+    <row r="60" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="76"/>
-    </row>
-    <row r="61" spans="1:2" ht="21" customHeight="1">
-      <c r="A61" s="77" t="s">
+      <c r="B60" s="90"/>
+    </row>
+    <row r="61" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="B61" s="78"/>
-    </row>
-    <row r="62" spans="1:2" ht="23.25" customHeight="1">
-      <c r="A62" s="79" t="s">
+      <c r="B61" s="94"/>
+    </row>
+    <row r="62" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="80"/>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="B62" s="92"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
@@ -4109,32 +4366,103 @@
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="30" customHeight="1">
-      <c r="A67" s="75" t="s">
+    <row r="67" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="76"/>
-    </row>
-    <row r="68" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A68" s="75" t="s">
+      <c r="B67" s="90"/>
+    </row>
+    <row r="68" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="76"/>
-    </row>
-    <row r="69" spans="1:2" ht="36" customHeight="1">
-      <c r="A69" s="79" t="s">
+      <c r="B68" s="90"/>
+    </row>
+    <row r="69" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="80"/>
+      <c r="B69" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A68:B68"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="E18:F18"/>
@@ -4151,83 +4479,12 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4242,124 +4499,124 @@
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="27" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
     <col min="12" max="12" width="22" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" customWidth="1"/>
     <col min="17" max="17" width="27" customWidth="1"/>
     <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="23" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" customWidth="1"/>
+    <col min="24" max="24" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5546875" customWidth="1"/>
     <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
+    <col min="29" max="29" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="91"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="88"/>
+      <c r="F1" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="91"/>
-      <c r="K1" s="90" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="88"/>
+      <c r="K1" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="91"/>
-      <c r="P1" s="90" t="s">
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="88"/>
+      <c r="P1" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="91"/>
-      <c r="U1" s="92" t="s">
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="88"/>
+      <c r="U1" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="94"/>
-      <c r="Z1" s="92" t="s">
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="112"/>
+      <c r="Z1" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="94"/>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="95" t="s">
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="112"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="F3" s="95" t="s">
+      <c r="D3" s="108"/>
+      <c r="F3" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="97"/>
-      <c r="K3" s="95" t="s">
+      <c r="I3" s="108"/>
+      <c r="K3" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96" t="s">
+      <c r="L3" s="107"/>
+      <c r="M3" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="97"/>
-      <c r="P3" s="95" t="s">
+      <c r="N3" s="108"/>
+      <c r="P3" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96" t="s">
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="97"/>
-      <c r="U3" s="95" t="s">
+      <c r="S3" s="108"/>
+      <c r="U3" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96" t="s">
+      <c r="V3" s="107"/>
+      <c r="W3" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="97"/>
-      <c r="Z3" s="95" t="s">
+      <c r="X3" s="108"/>
+      <c r="Z3" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96" t="s">
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="AC3" s="97"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AC3" s="108"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>161</v>
       </c>
@@ -4433,7 +4690,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
@@ -4507,7 +4764,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>180</v>
       </c>
@@ -4569,63 +4826,63 @@
       </c>
       <c r="AC6" s="16"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
       <c r="D7" s="8"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="95" t="s">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="F8" s="95" t="s">
+      <c r="D8" s="108"/>
+      <c r="F8" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96" t="s">
+      <c r="G8" s="107"/>
+      <c r="H8" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="97"/>
-      <c r="K8" s="95" t="s">
+      <c r="I8" s="108"/>
+      <c r="K8" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="L8" s="96"/>
-      <c r="M8" s="96" t="s">
+      <c r="L8" s="107"/>
+      <c r="M8" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="N8" s="97"/>
-      <c r="P8" s="95" t="s">
+      <c r="N8" s="108"/>
+      <c r="P8" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96" t="s">
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="S8" s="97"/>
-      <c r="U8" s="95" t="s">
+      <c r="S8" s="108"/>
+      <c r="U8" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="V8" s="96"/>
-      <c r="W8" s="96" t="s">
+      <c r="V8" s="107"/>
+      <c r="W8" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="97"/>
-      <c r="Z8" s="95" t="s">
+      <c r="X8" s="108"/>
+      <c r="Z8" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="96" t="s">
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="AC8" s="97"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AC8" s="108"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>161</v>
       </c>
@@ -4699,7 +4956,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>194</v>
       </c>
@@ -4767,7 +5024,7 @@
       </c>
       <c r="AC10" s="9"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>203</v>
       </c>
@@ -4826,7 +5083,7 @@
       </c>
       <c r="AC11" s="9"/>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>213</v>
       </c>
@@ -4867,7 +5124,7 @@
       </c>
       <c r="AC12" s="20"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>219</v>
       </c>
@@ -4898,22 +5155,22 @@
         <v>171</v>
       </c>
       <c r="N13" s="20"/>
-      <c r="P13" s="95" t="s">
+      <c r="P13" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96" t="s">
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107" t="s">
         <v>224</v>
       </c>
-      <c r="S13" s="97"/>
-      <c r="U13" s="95" t="s">
+      <c r="S13" s="108"/>
+      <c r="U13" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96" t="s">
+      <c r="V13" s="107"/>
+      <c r="W13" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="X13" s="97"/>
+      <c r="X13" s="108"/>
       <c r="Z13" s="19" t="s">
         <v>225</v>
       </c>
@@ -4925,7 +5182,7 @@
       </c>
       <c r="AC13" s="20"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>227</v>
       </c>
@@ -4981,7 +5238,7 @@
       </c>
       <c r="AC14" s="20"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>234</v>
       </c>
@@ -4992,14 +5249,14 @@
         <v>171</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="F15" s="95" t="s">
+      <c r="F15" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96" t="s">
+      <c r="G15" s="107"/>
+      <c r="H15" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="97"/>
+      <c r="I15" s="108"/>
       <c r="K15" s="17" t="s">
         <v>236</v>
       </c>
@@ -5043,7 +5300,7 @@
       </c>
       <c r="AC15" s="18"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>165</v>
       </c>
@@ -5087,7 +5344,7 @@
       </c>
       <c r="X16" s="16"/>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
         <v>180</v>
       </c>
@@ -5118,16 +5375,16 @@
         <v>96</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="Z17" s="95" t="s">
+      <c r="Z17" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96" t="s">
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="AC17" s="97"/>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AC17" s="108"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
         <v>247</v>
       </c>
@@ -5150,22 +5407,22 @@
       <c r="N18" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="P18" s="95" t="s">
+      <c r="P18" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="99" t="s">
+      <c r="Q18" s="107"/>
+      <c r="R18" s="109" t="s">
         <v>249</v>
       </c>
-      <c r="S18" s="97"/>
-      <c r="U18" s="95" t="s">
+      <c r="S18" s="108"/>
+      <c r="U18" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96" t="s">
+      <c r="V18" s="107"/>
+      <c r="W18" s="107" t="s">
         <v>250</v>
       </c>
-      <c r="X18" s="97"/>
+      <c r="X18" s="108"/>
       <c r="Z18" s="7" t="s">
         <v>161</v>
       </c>
@@ -5179,15 +5436,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="95" t="s">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="108"/>
       <c r="F19" s="17" t="s">
         <v>251</v>
       </c>
@@ -5247,7 +5504,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>161</v>
       </c>
@@ -5303,7 +5560,7 @@
       </c>
       <c r="AC20" s="9"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>209</v>
       </c>
@@ -5357,7 +5614,7 @@
       </c>
       <c r="AC21" s="20"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>264</v>
       </c>
@@ -5409,7 +5666,7 @@
       </c>
       <c r="AC22" s="20"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K23" s="7" t="s">
         <v>272</v>
       </c>
@@ -5441,7 +5698,7 @@
       </c>
       <c r="AC23" s="20"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -5456,7 +5713,7 @@
       <c r="L24" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="M24" s="54" t="s">
+      <c r="M24" s="53" t="s">
         <v>171</v>
       </c>
       <c r="N24" s="16"/>
@@ -5481,7 +5738,7 @@
       </c>
       <c r="AC24" s="18"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>161</v>
       </c>
@@ -5506,7 +5763,7 @@
       </c>
       <c r="S25" s="18"/>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>280</v>
       </c>
@@ -5528,7 +5785,7 @@
       </c>
       <c r="AC26" s="6"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>283</v>
       </c>
@@ -5543,18 +5800,18 @@
         <v>159</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="56" t="s">
+      <c r="M27" s="55" t="s">
         <v>117</v>
       </c>
       <c r="N27" s="6"/>
-      <c r="P27" s="95" t="s">
+      <c r="P27" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96" t="s">
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="S27" s="97"/>
+      <c r="S27" s="108"/>
       <c r="Z27" s="7" t="s">
         <v>161</v>
       </c>
@@ -5568,7 +5825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>209</v>
       </c>
@@ -5618,7 +5875,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
         <v>205</v>
       </c>
@@ -5658,7 +5915,7 @@
       <c r="AB29" s="15"/>
       <c r="AC29" s="16"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K30" s="19" t="s">
         <v>182</v>
       </c>
@@ -5680,7 +5937,7 @@
       </c>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
@@ -5710,7 +5967,7 @@
       </c>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>161</v>
       </c>
@@ -5734,7 +5991,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>209</v>
       </c>
@@ -5758,7 +6015,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>205</v>
       </c>
@@ -5780,7 +6037,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>213</v>
       </c>
@@ -5792,7 +6049,7 @@
       </c>
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>300</v>
       </c>
@@ -5812,7 +6069,7 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>243</v>
       </c>
@@ -5838,7 +6095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K38" s="14" t="s">
         <v>243</v>
       </c>
@@ -5852,7 +6109,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>44</v>
       </c>
@@ -5862,7 +6119,7 @@
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>161</v>
       </c>
@@ -5876,7 +6133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>243</v>
       </c>
@@ -5888,13 +6145,13 @@
       </c>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>44</v>
       </c>
@@ -5904,7 +6161,7 @@
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>161</v>
       </c>
@@ -5918,7 +6175,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>260</v>
       </c>
@@ -5930,7 +6187,7 @@
       </c>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>304</v>
       </c>
@@ -5942,7 +6199,7 @@
       </c>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="17" t="s">
         <v>306</v>
       </c>
@@ -5954,7 +6211,7 @@
       </c>
       <c r="D47" s="18"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>44</v>
       </c>
@@ -5964,7 +6221,7 @@
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>161</v>
       </c>
@@ -5978,7 +6235,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>308</v>
       </c>
@@ -5990,7 +6247,7 @@
       </c>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>310</v>
       </c>
@@ -6002,7 +6259,7 @@
       </c>
       <c r="D52" s="16"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
@@ -6012,7 +6269,7 @@
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>161</v>
       </c>
@@ -6026,7 +6283,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>308</v>
       </c>
@@ -6038,7 +6295,7 @@
       </c>
       <c r="D56" s="9"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>310</v>
       </c>
@@ -6050,7 +6307,7 @@
       </c>
       <c r="D57" s="16"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>44</v>
       </c>
@@ -6060,7 +6317,7 @@
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>161</v>
       </c>
@@ -6074,7 +6331,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="14" t="s">
         <v>198</v>
       </c>
@@ -6088,22 +6345,20 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="AB17:AC17"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
@@ -6120,20 +6375,22 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6144,577 +6401,723 @@
   <sheetPr codeName="Planilha4">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="37">
+      <c r="C2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="114" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>45002</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="44">
         <v>45014</v>
       </c>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="46"/>
-      <c r="B5" s="42" t="s">
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="45"/>
+      <c r="B5" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <v>45002</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>45014</v>
       </c>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="46"/>
-      <c r="B6" s="42" t="s">
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="45"/>
+      <c r="B6" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <v>45002</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="44">
         <v>45014</v>
       </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="46"/>
-      <c r="B7" s="42" t="s">
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="45"/>
+      <c r="B7" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="44">
         <v>45002</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="44">
         <v>45014</v>
       </c>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="37">
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="46"/>
-      <c r="B9" s="42" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="45"/>
+      <c r="B9" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="44">
         <v>45005</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="44">
         <v>45014</v>
       </c>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="46"/>
-      <c r="B10" s="42" t="s">
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="45"/>
+      <c r="B10" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="54">
         <v>44984</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>45014</v>
       </c>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="44">
         <v>45013</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="44">
         <v>45014</v>
       </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42" t="s">
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>45015</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>45017</v>
       </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42" t="s">
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="44">
         <v>45015</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>45017</v>
       </c>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42" t="s">
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="44">
         <v>45015</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>45017</v>
       </c>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="37">
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
         <v>3</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="46"/>
-      <c r="B16" s="48" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="45"/>
+      <c r="B16" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="44">
         <v>45019</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="44">
         <v>45023</v>
       </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37">
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="46"/>
-      <c r="B18" s="48" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="45"/>
+      <c r="B18" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="44">
         <v>45023</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="44">
         <v>45026</v>
       </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="46"/>
-      <c r="B19" s="42" t="s">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="45"/>
+      <c r="B19" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="44">
         <v>45023</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="44">
         <v>45026</v>
       </c>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="46"/>
-      <c r="B20" s="48" t="s">
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="45"/>
+      <c r="B20" s="47" t="s">
         <v>340</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>321</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="44">
         <v>45023</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="44">
         <v>45026</v>
       </c>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="46"/>
-      <c r="B21" s="64" t="s">
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>321</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="66">
         <v>45027</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="44">
         <v>45027</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="63"/>
-      <c r="B22" s="71" t="s">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="71" t="s">
         <v>344</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="72">
         <v>45027</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="61">
         <v>45027</v>
       </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="46"/>
-      <c r="B23" s="68" t="s">
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="65" t="s">
         <v>342</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="69">
         <v>45027</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="44">
         <v>45027</v>
       </c>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="34"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27" t="s">
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>5</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>516</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="47" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" s="44">
+        <v>45082</v>
+      </c>
+      <c r="F25" s="44">
+        <v>45083</v>
+      </c>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="115"/>
+      <c r="B26" s="115" t="s">
+        <v>521</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E26" s="44">
+        <v>45082</v>
+      </c>
+      <c r="F26" s="44">
+        <v>45083</v>
+      </c>
+      <c r="G26" s="115"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="115"/>
+      <c r="B27" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="44">
+        <v>45082</v>
+      </c>
+      <c r="F27" s="44">
+        <v>45083</v>
+      </c>
+      <c r="G27" s="115"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="115"/>
+      <c r="B28" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E28" s="44">
+        <v>45082</v>
+      </c>
+      <c r="F28" s="44">
+        <v>45083</v>
+      </c>
+      <c r="G28" s="115"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="115"/>
+      <c r="B29" s="115" t="s">
+        <v>520</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="44">
+        <v>45082</v>
+      </c>
+      <c r="F29" s="44">
+        <v>45085</v>
+      </c>
+      <c r="G29" s="115"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
+        <v>6</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>523</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="45"/>
+      <c r="B31" s="47" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="E31" s="44">
+        <v>45023</v>
+      </c>
+      <c r="F31" s="44">
+        <v>45026</v>
+      </c>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A34" s="23"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="22" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E37" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75">
-      <c r="A29" s="23"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E38" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="22" t="s">
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E39" s="28" t="s">
         <v>353</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="22" t="s">
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E40" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E41" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="29"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D23">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+  <conditionalFormatting sqref="D3:D31">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"J&lt;"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+  <conditionalFormatting sqref="D33 D3:D31">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D32">
-    <cfRule type="cellIs" dxfId="9" priority="74" operator="equal">
+  <conditionalFormatting sqref="D36:D41">
+    <cfRule type="cellIs" dxfId="4" priority="74" operator="equal">
       <formula>"L"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="75" operator="equal">
       <formula>"K"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="76" operator="equal">
       <formula>"J"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="equal">
       <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="78" operator="equal">
       <formula>"J&lt;"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6731,84 +7134,84 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="P1" s="49" t="s">
         <v>373</v>
       </c>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="R1" s="50" t="s">
+      <c r="R1" s="49" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -6864,7 +7267,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>394</v>
       </c>
@@ -6920,7 +7323,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>412</v>
       </c>
@@ -6976,7 +7379,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -7032,7 +7435,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>448</v>
       </c>
@@ -7088,7 +7491,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -7138,7 +7541,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>482</v>
       </c>
@@ -7185,7 +7588,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>496</v>
       </c>
@@ -7220,7 +7623,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>507</v>
       </c>
@@ -7234,7 +7637,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>420</v>
       </c>
@@ -7242,7 +7645,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I12" t="s">
         <v>512</v>
       </c>
@@ -7263,102 +7666,102 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>513</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
         <v>373</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="50" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>365</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="51" t="s">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
         <v>370</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="51" t="s">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="53"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7374,7 +7777,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
